--- a/Mobula dissections/Mobula_eregoodootenkee reproduction data- Latest update MBB_CL_CL EDITED COLUMNS.xlsx
+++ b/Mobula dissections/Mobula_eregoodootenkee reproduction data- Latest update MBB_CL_CL EDITED COLUMNS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqclaws5_uq_edu_au/Documents/Documents/PhD/Lab work/Mobula dissections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherlawson/Documents/GitHub/Mobula-eregoodoo-energetics/Mobula dissections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7CECA3183B4225FF924FE6D0B14E60D0062974AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67D2BF9-072B-0F48-A80A-A9B1B3BB23E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D29D81-7AD0-FC4B-B4BA-68DB42F2D8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -8430,14 +8430,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1220" activePane="bottomLeft"/>
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="680"/>
+      <selection activeCell="I4" sqref="I4"/>
       <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
@@ -8636,7 +8636,7 @@
       <c r="CL1" s="63"/>
       <c r="CM1" s="63"/>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="79">
         <v>43083</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="AN2" s="99"/>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="34"/>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AN3" s="57"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>43138</v>
       </c>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="AN4" s="57"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>43066</v>
       </c>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="AN5" s="57"/>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58"/>
       <c r="B6" s="78"/>
       <c r="C6" s="34"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="AN6" s="57"/>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
         <v>42879</v>
       </c>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AN7" s="48"/>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <v>42851</v>
       </c>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="AN8" s="48"/>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50">
         <v>42841</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="AN9" s="48"/>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>42835</v>
       </c>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="AN10" s="48"/>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>42851</v>
       </c>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="AN11" s="48"/>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <v>42852</v>
       </c>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="AN12" s="48"/>
     </row>
-    <row r="13" spans="1:91" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>42835</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="CL13" s="32"/>
       <c r="CM13" s="32"/>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <v>42851</v>
       </c>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="AN14" s="54"/>
     </row>
-    <row r="15" spans="1:91" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>42835</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="CF15" s="47"/>
       <c r="CG15" s="47"/>
     </row>
-    <row r="16" spans="1:91" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <v>42811</v>
       </c>
@@ -10417,7 +10417,7 @@
       <c r="CF16" s="47"/>
       <c r="CG16" s="47"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <v>42835</v>
       </c>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="AN17" s="48"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50">
         <v>42879</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="V18" s="7">
-        <f>U18/K18*100</f>
+        <f t="shared" ref="V18:V60" si="0">U18/K18*100</f>
         <v>6.1374045801526727</v>
       </c>
       <c r="W18" s="6">
@@ -10602,7 +10602,7 @@
         <v>127</v>
       </c>
       <c r="Y18" s="6">
-        <f>W18-X18</f>
+        <f t="shared" ref="Y18:Y60" si="1">W18-X18</f>
         <v>9</v>
       </c>
       <c r="Z18" s="6" t="s">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="AN18" s="48"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="56">
         <v>43215</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="V19" s="36">
-        <f>U19/K19*100</f>
+        <f t="shared" si="0"/>
         <v>6.1333333333333329</v>
       </c>
       <c r="W19" s="34">
@@ -10724,7 +10724,7 @@
         <v>98.97</v>
       </c>
       <c r="Y19" s="34">
-        <f>W19-X19</f>
+        <f t="shared" si="1"/>
         <v>63.629999999999995</v>
       </c>
       <c r="Z19" s="34" t="s">
@@ -10773,7 +10773,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="56">
         <v>43215</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="V20" s="36">
-        <f>U20/K20*100</f>
+        <f t="shared" si="0"/>
         <v>6.0285714285714285</v>
       </c>
       <c r="W20" s="34">
@@ -10848,7 +10848,7 @@
         <v>122.06</v>
       </c>
       <c r="Y20" s="34">
-        <f>W20-X20</f>
+        <f t="shared" si="1"/>
         <v>9.9799999999999898</v>
       </c>
       <c r="Z20" s="34" t="s">
@@ -10897,7 +10897,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <v>42852</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="V21" s="23">
-        <f>U21/K21*100</f>
+        <f t="shared" si="0"/>
         <v>5.913333333333334</v>
       </c>
       <c r="W21" s="9">
@@ -10972,7 +10972,7 @@
         <v>117</v>
       </c>
       <c r="Y21" s="9">
-        <f>W21-X21</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="Z21" s="9" t="s">
@@ -11021,7 +11021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56">
         <v>43066</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>1.0069999999999999</v>
       </c>
       <c r="V22" s="36">
-        <f>U22/K22*100</f>
+        <f t="shared" si="0"/>
         <v>5.5027322404371573</v>
       </c>
       <c r="W22" s="34">
@@ -11096,7 +11096,7 @@
         <v>163</v>
       </c>
       <c r="Y22" s="34">
-        <f>W22-X22</f>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="Z22" s="34" t="s">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="AN22" s="57"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50">
         <v>42849</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="V23" s="23">
-        <f>U23/K23*100</f>
+        <f t="shared" si="0"/>
         <v>5.4593023255813948</v>
       </c>
       <c r="W23" s="9">
@@ -11218,7 +11218,7 @@
         <v>134</v>
       </c>
       <c r="Y23" s="9">
-        <f>W23-X23</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="Z23" s="9" t="s">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="AN23" s="48"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50">
         <v>42852</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="V24" s="23">
-        <f>U24/K24*100</f>
+        <f t="shared" si="0"/>
         <v>5.2571428571428571</v>
       </c>
       <c r="W24" s="9">
@@ -11338,7 +11338,7 @@
         <v>113</v>
       </c>
       <c r="Y24" s="9">
-        <f>W24-X24</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="Z24" s="9" t="s">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="AN24" s="48"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>42879</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="V25" s="7">
-        <f>U25/K25*100</f>
+        <f t="shared" si="0"/>
         <v>5.2297297297297298</v>
       </c>
       <c r="W25" s="6">
@@ -11460,7 +11460,7 @@
         <v>127</v>
       </c>
       <c r="Y25" s="6">
-        <f>W25-X25</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Z25" s="6" t="s">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AN25" s="48"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>42852</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="V26" s="23">
-        <f>U26/K26*100</f>
+        <f t="shared" si="0"/>
         <v>5.1270718232044192</v>
       </c>
       <c r="W26" s="9">
@@ -11582,7 +11582,7 @@
         <v>129</v>
       </c>
       <c r="Y26" s="9">
-        <f>W26-X26</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="Z26" s="9" t="s">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="AN26" s="48"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50">
         <v>42849</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>0.747</v>
       </c>
       <c r="V27" s="7">
-        <f>U27/K27*100</f>
+        <f t="shared" si="0"/>
         <v>5.0134228187919465</v>
       </c>
       <c r="W27" s="6">
@@ -11704,7 +11704,7 @@
         <v>100</v>
       </c>
       <c r="Y27" s="6">
-        <f>W27-X27</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="Z27" s="6" t="s">
@@ -11816,7 +11816,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="V28" s="36">
-        <f>U28/K28*100</f>
+        <f t="shared" si="0"/>
         <v>4.9766081871345023</v>
       </c>
       <c r="W28" s="65">
@@ -11826,7 +11826,7 @@
         <v>164.5</v>
       </c>
       <c r="Y28" s="34">
-        <f>W28-X28</f>
+        <f t="shared" si="1"/>
         <v>15.889999999999986</v>
       </c>
       <c r="Z28" s="34" t="s">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="AN28" s="57"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56">
         <v>43083</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="V29" s="36">
-        <f>U29/K29*100</f>
+        <f t="shared" si="0"/>
         <v>4.9594594594594597</v>
       </c>
       <c r="W29" s="18" t="s">
@@ -11948,7 +11948,7 @@
         <v>285</v>
       </c>
       <c r="Y29" s="34" t="e">
-        <f>W29-X29</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z29" s="34" t="s">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="AN29" s="57"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>42842</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="V30" s="7">
-        <f>U30/K30*100</f>
+        <f t="shared" si="0"/>
         <v>4.9259259259259256</v>
       </c>
       <c r="W30" s="6">
@@ -12070,7 +12070,7 @@
         <v>84</v>
       </c>
       <c r="Y30" s="6">
-        <f>W30-X30</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="Z30" s="6" t="s">
@@ -12119,7 +12119,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50">
         <v>42818</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="V31" s="23">
-        <f>U31/K31*100</f>
+        <f t="shared" si="0"/>
         <v>4.8711111111111114</v>
       </c>
       <c r="W31" s="9">
@@ -12194,7 +12194,7 @@
         <v>165</v>
       </c>
       <c r="Y31" s="9">
-        <f>W31-X31</f>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="Z31" s="9" t="s">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="AN31" s="48"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50">
         <v>42851</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="V32" s="7">
-        <f>U32/K32*100</f>
+        <f t="shared" si="0"/>
         <v>4.836879432624114</v>
       </c>
       <c r="W32" s="6">
@@ -12316,7 +12316,7 @@
         <v>113</v>
       </c>
       <c r="Y32" s="6">
-        <f>W32-X32</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="Z32" s="6" t="s">
@@ -12365,7 +12365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50">
         <v>42850</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="V33" s="23">
-        <f>U33/K33*100</f>
+        <f t="shared" si="0"/>
         <v>4.8271604938271606</v>
       </c>
       <c r="W33" s="9">
@@ -12440,7 +12440,7 @@
         <v>116</v>
       </c>
       <c r="Y33" s="9">
-        <f>W33-X33</f>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="Z33" s="9" t="s">
@@ -12554,7 +12554,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="V34" s="7">
-        <f>U34/K34*100</f>
+        <f t="shared" si="0"/>
         <v>4.7673267326732676</v>
       </c>
       <c r="W34" s="6">
@@ -12564,7 +12564,7 @@
         <v>164</v>
       </c>
       <c r="Y34" s="6">
-        <f>W34-X34</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="Z34" s="6" t="s">
@@ -12613,7 +12613,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50">
         <v>42851</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="V35" s="23">
-        <f>U35/K35*100</f>
+        <f t="shared" si="0"/>
         <v>4.747311827956989</v>
       </c>
       <c r="W35" s="23">
@@ -12688,7 +12688,7 @@
         <v>135</v>
       </c>
       <c r="Y35" s="9">
-        <f>W35-X35</f>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="Z35" s="9" t="s">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="AN35" s="48"/>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56">
         <v>43066</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>0.745</v>
       </c>
       <c r="V36" s="36">
-        <f>U36/K36*100</f>
+        <f t="shared" si="0"/>
         <v>4.6855345911949682</v>
       </c>
       <c r="W36" s="34">
@@ -12810,7 +12810,7 @@
         <v>173</v>
       </c>
       <c r="Y36" s="34">
-        <f>W36-X36</f>
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
       <c r="Z36" s="34" t="s">
@@ -12859,7 +12859,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50">
         <v>42854</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="V37" s="23">
-        <f>U37/K37*100</f>
+        <f t="shared" si="0"/>
         <v>4.661538461538461</v>
       </c>
       <c r="W37" s="9">
@@ -12934,7 +12934,7 @@
         <v>97</v>
       </c>
       <c r="Y37" s="9">
-        <f>W37-X37</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="Z37" s="9" t="s">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="AN37" s="48"/>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50">
         <v>42849</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="V38" s="7">
-        <f>U38/K38*100</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="W38" s="19">
@@ -13056,7 +13056,7 @@
         <v>111</v>
       </c>
       <c r="Y38" s="6">
-        <f>W38-X38</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Z38" s="6" t="s">
@@ -13170,7 +13170,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="V39" s="23">
-        <f>U39/K39*100</f>
+        <f t="shared" si="0"/>
         <v>4.4511627906976745</v>
       </c>
       <c r="W39" s="9">
@@ -13180,7 +13180,7 @@
         <v>145</v>
       </c>
       <c r="Y39" s="9">
-        <f>W39-X39</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="Z39" s="9" t="s">
@@ -13343,7 +13343,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="V40" s="23">
-        <f>U40/K40*100</f>
+        <f t="shared" si="0"/>
         <v>4.3865979381443303</v>
       </c>
       <c r="W40" s="9">
@@ -13353,7 +13353,7 @@
         <v>167</v>
       </c>
       <c r="Y40" s="9">
-        <f>W40-X40</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="Z40" s="9" t="s">
@@ -13451,7 +13451,7 @@
       <c r="CL40" s="28"/>
       <c r="CM40" s="28"/>
     </row>
-    <row r="41" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:91" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50">
         <v>42852</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="V41" s="23">
-        <f>U41/K41*100</f>
+        <f t="shared" si="0"/>
         <v>4.2375000000000007</v>
       </c>
       <c r="W41" s="9">
@@ -13526,7 +13526,7 @@
         <v>144</v>
       </c>
       <c r="Y41" s="9">
-        <f>W41-X41</f>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="Z41" s="9" t="s">
@@ -13624,7 +13624,7 @@
       <c r="CL41" s="28"/>
       <c r="CM41" s="28"/>
     </row>
-    <row r="42" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:91" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56">
         <v>43066</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="V42" s="36">
-        <f>U42/K42*100</f>
+        <f t="shared" si="0"/>
         <v>4.1626506024096379</v>
       </c>
       <c r="W42" s="91">
@@ -13699,7 +13699,7 @@
         <v>149</v>
       </c>
       <c r="Y42" s="34">
-        <f>W42-X42</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="Z42" s="34" t="s">
@@ -13799,7 +13799,7 @@
       <c r="CL42" s="28"/>
       <c r="CM42" s="28"/>
     </row>
-    <row r="43" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:91" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56">
         <v>43066</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>0.63</v>
       </c>
       <c r="V43" s="36">
-        <f>U43/K43*100</f>
+        <f t="shared" si="0"/>
         <v>4.1447368421052637</v>
       </c>
       <c r="W43" s="34">
@@ -13874,7 +13874,7 @@
         <v>156</v>
       </c>
       <c r="Y43" s="34">
-        <f>W43-X43</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Z43" s="34" t="s">
@@ -14037,7 +14037,7 @@
         <v>0.627</v>
       </c>
       <c r="V44" s="36">
-        <f>U44/K44*100</f>
+        <f t="shared" si="0"/>
         <v>4.0714285714285721</v>
       </c>
       <c r="W44" s="34">
@@ -14047,7 +14047,7 @@
         <v>132</v>
       </c>
       <c r="Y44" s="34">
-        <f>W44-X44</f>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="Z44" s="34" t="s">
@@ -14212,7 +14212,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="V45" s="23">
-        <f>U45/K45*100</f>
+        <f t="shared" si="0"/>
         <v>3.8941798941798944</v>
       </c>
       <c r="W45" s="9">
@@ -14222,7 +14222,7 @@
         <v>168</v>
       </c>
       <c r="Y45" s="9">
-        <f>W45-X45</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="Z45" s="9" t="s">
@@ -14385,7 +14385,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="V46" s="69">
-        <f>U46/K46*100</f>
+        <f t="shared" si="0"/>
         <v>3.8869565217391306</v>
       </c>
       <c r="W46" s="68">
@@ -14395,7 +14395,7 @@
         <v>186</v>
       </c>
       <c r="Y46" s="68">
-        <f>W46-X46</f>
+        <f t="shared" si="1"/>
         <v>346.5</v>
       </c>
       <c r="Z46" s="34" t="s">
@@ -14495,7 +14495,7 @@
       <c r="CL46" s="28"/>
       <c r="CM46" s="28"/>
     </row>
-    <row r="47" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:91" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
         <v>187</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="V47" s="23">
-        <f>U47/K47*100</f>
+        <f t="shared" si="0"/>
         <v>3.8227272727272728</v>
       </c>
       <c r="W47" s="9">
@@ -14570,7 +14570,7 @@
         <v>172</v>
       </c>
       <c r="Y47" s="9">
-        <f>W47-X47</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Z47" s="9" t="s">
@@ -14733,7 +14733,7 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="V48" s="7">
-        <f>U48/K48*100</f>
+        <f t="shared" si="0"/>
         <v>3.7971698113207553</v>
       </c>
       <c r="W48" s="6">
@@ -14743,7 +14743,7 @@
         <v>198</v>
       </c>
       <c r="Y48" s="6">
-        <f>W48-X48</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="Z48" s="6" t="s">
@@ -14841,7 +14841,7 @@
       <c r="CL48" s="28"/>
       <c r="CM48" s="28"/>
     </row>
-    <row r="49" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50">
         <v>42788</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>0.626</v>
       </c>
       <c r="V49" s="23">
-        <f>U49/K49*100</f>
+        <f t="shared" si="0"/>
         <v>3.7939393939393939</v>
       </c>
       <c r="W49" s="9">
@@ -14916,7 +14916,7 @@
         <v>122</v>
       </c>
       <c r="Y49" s="9">
-        <f>W49-X49</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Z49" s="9" t="s">
@@ -15079,7 +15079,7 @@
         <v>0.753</v>
       </c>
       <c r="V50" s="23">
-        <f>U50/K50*100</f>
+        <f t="shared" si="0"/>
         <v>3.7277227722772275</v>
       </c>
       <c r="W50" s="9">
@@ -15089,7 +15089,7 @@
         <v>176</v>
       </c>
       <c r="Y50" s="9">
-        <f>W50-X50</f>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="Z50" s="9" t="s">
@@ -15252,7 +15252,7 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="V51" s="36">
-        <f>U51/K51*100</f>
+        <f t="shared" si="0"/>
         <v>3.7065217391304355</v>
       </c>
       <c r="W51" s="34">
@@ -15262,7 +15262,7 @@
         <v>152</v>
       </c>
       <c r="Y51" s="34">
-        <f>W51-X51</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="Z51" s="34" t="s">
@@ -15427,7 +15427,7 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="V52" s="36">
-        <f>U52/K52*100</f>
+        <f t="shared" si="0"/>
         <v>3.6799999999999997</v>
       </c>
       <c r="W52" s="34">
@@ -15437,7 +15437,7 @@
         <v>150</v>
       </c>
       <c r="Y52" s="34">
-        <f>W52-X52</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="Z52" s="34" t="s">
@@ -15537,7 +15537,7 @@
       <c r="CL52" s="28"/>
       <c r="CM52" s="28"/>
     </row>
-    <row r="53" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50">
         <v>42787</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="V53" s="23">
-        <f>U53/K53*100</f>
+        <f t="shared" si="0"/>
         <v>3.5515463917525776</v>
       </c>
       <c r="W53" s="9">
@@ -15612,7 +15612,7 @@
         <v>173</v>
       </c>
       <c r="Y53" s="9">
-        <f>W53-X53</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="Z53" s="9" t="s">
@@ -15775,7 +15775,7 @@
         <v>0.878</v>
       </c>
       <c r="V54" s="30">
-        <f>U54/K54*100</f>
+        <f t="shared" si="0"/>
         <v>3.540322580645161</v>
       </c>
       <c r="W54" s="28">
@@ -15785,7 +15785,7 @@
         <v>170</v>
       </c>
       <c r="Y54" s="28">
-        <f>W54-X54</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="Z54" s="28" t="s">
@@ -15883,7 +15883,7 @@
       <c r="CL54" s="28"/>
       <c r="CM54" s="28"/>
     </row>
-    <row r="55" spans="1:91" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50">
         <v>42875</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="V55" s="7">
-        <f>U55/K55*100</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="W55" s="6">
@@ -15958,7 +15958,7 @@
         <v>125</v>
       </c>
       <c r="Y55" s="6">
-        <f>W55-X55</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="Z55" s="6" t="s">
@@ -16121,7 +16121,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="V56" s="23">
-        <f>U56/K56*100</f>
+        <f t="shared" si="0"/>
         <v>3.1942857142857148</v>
       </c>
       <c r="W56" s="9">
@@ -16131,7 +16131,7 @@
         <v>185</v>
       </c>
       <c r="Y56" s="9">
-        <f>W56-X56</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="Z56" s="9" t="s">
@@ -16294,7 +16294,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="V57" s="23">
-        <f>U57/K57*100</f>
+        <f t="shared" si="0"/>
         <v>3.112359550561798</v>
       </c>
       <c r="W57" s="9">
@@ -16304,7 +16304,7 @@
         <v>200</v>
       </c>
       <c r="Y57" s="9">
-        <f>W57-X57</f>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="Z57" s="9" t="s">
@@ -16467,7 +16467,7 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="V58" s="23">
-        <f>U58/K58*100</f>
+        <f t="shared" si="0"/>
         <v>3.0628930817610063</v>
       </c>
       <c r="W58" s="9">
@@ -16477,7 +16477,7 @@
         <v>128</v>
       </c>
       <c r="Y58" s="9">
-        <f>W58-X58</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="Z58" s="9" t="s">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="AN58" s="48"/>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50">
         <v>42852</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="V59" s="23">
-        <f>U59/K59*100</f>
+        <f t="shared" si="0"/>
         <v>2.994505494505495</v>
       </c>
       <c r="W59" s="9">
@@ -16599,7 +16599,7 @@
         <v>146</v>
       </c>
       <c r="Y59" s="9">
-        <f>W59-X59</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="Z59" s="9" t="s">
@@ -16711,7 +16711,7 @@
         <v>0.433</v>
       </c>
       <c r="V60" s="23">
-        <f>U60/K60*100</f>
+        <f t="shared" si="0"/>
         <v>2.4055555555555554</v>
       </c>
       <c r="W60" s="9">
@@ -16721,7 +16721,7 @@
         <v>161</v>
       </c>
       <c r="Y60" s="9">
-        <f>W60-X60</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="Z60" s="9" t="s">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="AN60" s="48"/>
     </row>
-    <row r="61" spans="1:91" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="80" t="s">
         <v>284</v>
       </c>
@@ -16821,7 +16821,18 @@
       <c r="I65" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AN61" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Female"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Gravid"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN65">
     <sortCondition descending="1" ref="V1:V65"/>
   </sortState>
@@ -16834,7 +16845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -17326,7 +17337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
